--- a/baike_spider/output.xlsx
+++ b/baike_spider/output.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20374"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Grade4_ComputerAssignment\Lab\爬虫\Python_BaikeSpider\Python_BaikeSpider\baike_spider\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B130C54B-E095-46FD-91F7-156DB88E3FA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="65">
   <si>
     <t>搜索疾病名称</t>
   </si>
@@ -34,6 +40,12 @@
     <t>主要症状</t>
   </si>
   <si>
+    <t>治疗方式</t>
+  </si>
+  <si>
+    <t>预防措施</t>
+  </si>
+  <si>
     <t>牙周炎</t>
   </si>
   <si>
@@ -57,6 +69,25 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">
+（一）局部治疗
+1.针对局部刺激因素
+可作龈上洁治术或龈下刮治术，必要时调整咬合、消除食物嵌塞和纠正不良修复体等。
+2.牙周袋的处理
+牙周袋溢脓时，可用1%～3%过氧化氢液冲洗，袋内置10%碘合剂或螺旋霉素、灭滴灵等药膜。在去除局部因素后，较浅的牙周袋可用碘酚液烧灼；较深的牙周袋需作牙周手术，以消除牙周炎。牙周袋深达根尖、牙齿松动明显时，可考虑拔除。
+3.松牙固定
+牙齿仍松动者，可作暂时性或永久性的牙周夹板以固定松动的牙齿。
+4.牙周脓肿的处理
+脓肿已局限时，可切开引流。牙周袋也应同时作冲洗、上药膜或碘甘油等。
+（二）全身治疗
+增强机体抵抗力，并积极治疗与牙周炎有关的系统性疾病。发生牙周脓肿时，全身反应较重的患者，应口服有关抗菌药物。
+总之，牙周炎的治疗包括一系列的综合治疗措施。为了巩固疗效、防止复发，应进行口腔卫生宣教，定期复查。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+预防和减少全身性疾病，加强营养，提高机体抵抗力，从而增强牙周组织的抗病能力；努力保持口腔清洁卫生；坚决戒除对牙周组织有害的不良习惯如吸烟、饮酒、单侧咀嚼等。</t>
+  </si>
+  <si>
     <t>种植体周围炎</t>
   </si>
   <si>
@@ -81,6 +112,27 @@
 </t>
   </si>
   <si>
+    <t>疾病治疗
+种植体周围黏膜炎是一种种植体周围软组织的可逆炎症，但这种“可逆”绝不是无条件的，如果不能有效地控制住引起种植体周围黏膜炎的病因——菌斑，种植体周围黏膜炎将进一步发展为种植体周围炎，引起骨吸收，最终导致种植体松动、脱落，种植失败。因此，治疗种植体周围黏膜炎最根本的原则是    持之以恒地去除菌斑，控制感染。
+1.口腔卫生指导：
+在施行任何治疗前，对患者进行有效的口腔卫生指导都是前提。患者必须掌握有效的菌斑控制方法，以保持良好的口腔卫生：可采用软毛、圆头牙刷和含少量磨料的牙膏，以避免种植体表面的损害，还可以选用种植体专用的牙线、间隙刷等清洁义齿邻面，清洁的重点在种植体-基台连接部及其周围软组织。同时应养成每个半年到一年定期复查，进行专业洁治习惯。
+2.机械去除菌斑牙石：
+通过机械手段清除天然牙和种植义齿各个部分的菌斑、牙石。这是目前公认的最有效的控制种植体周围黏膜炎的方法。需要指出的是，由于钛种植体表面容易磨损，传统的金属刮治器械并不适用于种植体。因此，在对种植体进行机械清洁时，必须采用塑料或钛刮治器械使牙石碎裂，再配合橡皮杯和抛光膏抛光种植体表面以清除菌斑。
+3.局部应用抗菌剂：
+对于探诊出血阳性，探诊深度在4~5mm之间，有或无溢脓的种植体周围病，可以局部应用氯己定等抗菌剂，作为机械方法的补充。包括每日用0.2%氯己定溶液含漱，或者在感染部位局部应用0.2%氯己定凝胶等方法。为达到治疗效果，抗菌剂应用一般需3~4周。然而需要指出的是，治疗种植体周围黏膜炎的根本方法还是在有效的机械性的菌斑去除方法。任何本末倒置的做法往往只能是“治标不治本”，最终无力阻止种植体周围附着的进一步丧失。
+4.要时行膜龈手术：
+检查软组织情况，如果种植体周围没有足够的角化龈维持种植体周围封闭，则无法有效阻止口腔内细菌突破黏膜屏障，此时最好行膜龈手术，增加角化龈宽度。   </t>
+  </si>
+  <si>
+    <t>疾病预防
+1.严格把握种植治疗的适应证
+牙周炎患者在病情未得到有效控制之前，是不宜进行种植修复的。此外，长期吸烟的患者在接受种植治疗前应认识到这些不良嗜好可能使种植体的远期疗效打折扣，因而戒烟对于预防种植体周围黏膜炎非常重要。糖尿病病人，在种植前应控制血糖水平。
+2.掌握有效的菌斑控制方法
+患者必须掌握有效的菌斑控制方法，以保持良好的口腔卫生：可采用软毛、圆头、牙刷和含少量磨料的牙膏，以避免种植体表面的损害，还可以选用种植体专用的牙线清洁义齿邻面，清洁的重点在种植体-基台连接部及其周围软组织。
+3.坚持规律的牙周维护治疗
+患者必须清楚，种植牙的戴入绝不是种植治疗的终点。如同我们自己的牙齿一样，种植牙同样需要定期复查，来杜绝菌斑牙石的堆积引起周围组织的破坏。一般来说，义齿戴入后1、3、6个月均应复诊，一年内无异常者应每半年到一年复诊一次，全面检查软硬组织及上部义齿，每年拍一次X线片观察有无周围骨吸收，以发现早期感染征象。每半年到一年应做一次专业的洁治，彻底清除种植体及天然牙表面菌斑，大量研究表明，具有良好依从性，坚持按医嘱进行牙周维护的患者，其发生种植体周围病得概率要显著低于依从性差者。   </t>
+  </si>
+  <si>
     <t>龋病</t>
   </si>
   <si>
@@ -99,6 +151,30 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">
+龋病治疗的目的在于终止病变过程，恢复牙齿的固有形态和功能。
+1.药物治疗
+药物治疗是在磨除龋坏的基础上，应用药物抑制龋病发展的方法，适用于恒牙尚未成洞的浅龋，乳前牙的浅、中龋洞。常用药物包括氨硝酸银和氟化钠等。
+2.银汞合金充填术
+对已形成实质性缺损的牙齿，充填术是目前应用最广泛且成效较好的方法，其基本过程可分为两步：先去除龋坏组织和失去支持的薄弱牙体组织，并按一定要求将窝洞制成合理的形态。然后以充填材料填充恢复其固有形态和功能。适用于充填后牙和隐蔽部位的前牙洞。
+3.复合树脂充填术
+适用于充填前牙和不承受咀嚼力量的后牙洞。
+4.酸蚀法光敏复合树脂充填术
+适应证同复合树脂充填术，还适用于牙体缺损较多、固位较差和遮盖变色牙等。
+5.嵌体
+用金属或其他材料制成与牙齿窝洞适合的修复体，镶嵌在洞内，称为嵌体；盖在合面的为盖嵌体。适用于：①后牙合面较大的窝洞或后牙有折裂可能者；②邻合面洞充填无法修复与邻牙的邻接关系者；③作为半固定桥基牙。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+防龋工作应从牙齿一萌出就开始。
+1.早晚刷牙、养成饭后漱口的好习惯；
+2.少吃酸性刺激食物，临睡前不吃零食；
+3.少吃含糖分高的食物，如糖、巧克力、饼干等；
+4.不可吃太多的过于坚硬的食物，以免牙齿磨损；
+5.常参加体育锻炼，定期检查口腔，一般12岁以上的人应每年查一次；
+6.平时饮食应多摄入富含钙、无机盐等营养食物，尽可能食用高纤维粗糙食物。</t>
+  </si>
+  <si>
     <t>牙髓病</t>
   </si>
   <si>
@@ -112,6 +188,17 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">
+急性牙髓炎最有效的治疗是立即打开髓腔引流，使炎症产物和脓液流出，降低髓腔内压力，迅速缓解疼痛。患牙髓炎的牙齿应施行手术摘除牙髓，达到保存患牙的目的，如不予适当的治疗，牙髓炎可发展为根尖脓肿，甚至颅骨骨髓炎，患牙就只有拔除。
+年轻恒牙，当牙根尚未发育完成可采用牙髓切髓术，保留牙乳头，有利于牙根的形成。慢性牙髓炎急性发作应急处理后，采用根管治疗术，前牙采用去髓术，逆行性牙髓炎采用去髓术合并牙周治疗。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+1.保持口腔卫生，早晚刷牙，饭后漱口是个重要环节；口腔良好的卫生环境可减少牙石的积聚和细菌的繁殖。正确的刷牙方法是：顺着牙缝的方向刷，上牙由上向下刷，下牙由下向上刷，根牙的里面、外面和咀嚼面都刷。
+2.定期清除牙石，保持牙清洁、光滑，食物残渣不易再附着。
+3.加强身体锻炼，劳逸结合。</t>
+  </si>
+  <si>
     <t>口腔溃疡</t>
   </si>
   <si>
@@ -125,6 +212,10 @@
 </t>
   </si>
   <si>
+    <t>治疗原则
+对于口腔溃疡的治疗，以消除病因、增强体质、对症治疗为主，治疗方法应坚持全身治疗和局部治疗相结合，中西医治疗相结合，生理和心理治疗相结合。需要引起注意的是，经久不愈，大而深的舌头溃疡，有可能是一种癌前病损，极易癌变，必要时做活检已明确诊断。</t>
+  </si>
+  <si>
     <t>扁平苔藓</t>
   </si>
   <si>
@@ -143,6 +234,14 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">
+1.治疗慢性病灶，停用可能诱发本病的药物。
+2.外用药物强效糖皮质激素软膏、维a酸软膏或钙调神经酶抑制剂等。
+3.肥厚性皮疹可采用糖皮质激素皮损内注射。
+4.严重者可系统性应用维a酸类或糖皮质激素，以及免疫抑制剂。
+5.物理治疗包括冷冻治疗、激光治疗、窄波紫外线治疗均有一定疗效。</t>
+  </si>
+  <si>
     <t>牙体缺损</t>
   </si>
   <si>
@@ -156,6 +255,10 @@
 </t>
   </si>
   <si>
+    <t>疾病治疗
+牙体缺损一般情况下可以采用充填的方法进行治疗。充填法简单易行，在门诊即可完成，牙体预备磨牙少，保存剩余的牙体组织。</t>
+  </si>
+  <si>
     <t>牙列缺损</t>
   </si>
   <si>
@@ -172,6 +275,38 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">
+（一）矫治原则
+牙列拥挤的主要机制是牙量骨量不调，牙量相对大而骨量相对小，因而其矫治原则是以增加骨量或减少牙量来达到牙量骨量的协调而创造排齐牙列的条件。也就是必须创造间隙供排齐牙齿所用。
+1.增加骨量
+通过各种矫正器扩大牙弓的长度及宽度以达到增加骨量也就是获得间隙的目的，但是这种方法获得的间隙是有限的。
+2.减少牙量
+通过片切，牙齿减径或减数拔牙的方法达到减少牙量而获得间隙。用减径方法获得的间隙也是十分有限的，而且易引起牙齿的继发龋，故临床上较少使用。而通过减数拔牙的方法能获得大量间隙，成为临床上对中度或重度拥挤的主要矫治方法。
+（二）轻度拥挤的矫治
+临床上的轻度拥挤常表现为上下切牙的扭转错位或尖牙轻度唇向错位，一般采用扩大牙弓的矫正方法。
+（1）颌外唇弓推磨牙向后 利用颌外唇弓推上颌第一恒磨牙向后而取得间隙，排齐前牙轻度拥挤，是临床上常用的矫治方法。这种方法主要用在第二恒磨牙未萌出以前，特别适用于前移成远中或开、远中的病例。矫正器必须保证每天戴用不少于12小时，睡眠时仍需戴用。随着磨牙后移，轻度拥挤的前牙获得排齐间隙或能自行调整，或采用其他可摘和固定矫正器排齐。
+（2）局部开展间隙 是常用的一种扩大牙弓获得间隙的局部开展矫正技术的矫治方法。主要用在个别牙齿拥挤错位间隙不足。局部开展牙弓其间隙来源主要是前部牙弓弧度增大，因而使用时应注意其前牙覆盖情况，不应使前牙覆盖增加太多而致深覆盖。在拥挤牙间隙不足解决后，再将错位牙矫正至正常位。
+（3）细丝弓开展牙弓。
+（4）分裂簧可摘矫正器全牙弓开展 使用此类矫正器一般在扩大牙弓取得间隙后尚需更换其他可摘或固定矫正器来排齐拥挤错位牙，并在使用此类矫正器时有一定限度，不能无限度扩大牙弓，以免后牙呈深覆盖或锁关系，造成接触障碍。
+（三）中度和重度拥挤的矫治
+一般采用减数拔牙配合矫正器治疗。
+1.尖牙唇向错位的矫治
+尖牙唇向错位间隙不足俗称“虎牙”，是临床上常见的错牙合，在尖牙唇向错位拥挤超过牙冠宽度1/2以上时，往往考虑减数拔牙矫治。
+（1）减数牙位的选择 尖牙唇向错位减数拔牙矫治一般不考虑拔错位尖牙本身，因尖牙对维持牙弓形态及面形丰满具有重要意义，若拔除尖牙会致面不对称畸形。同时尖牙又是牙列中根最粗壮者，有利于缺牙义齿修复作基牙用。首选牙位是第一双尖牙，故拔一个双尖牙对咀嚼功能影响不大。但在第一双尖牙正常，而第二双尖牙或第一恒磨牙有龋坏缺损或发育异常时，则应减数龋坏牙而不拔第一双尖牙，这样虽对矫治增加了困难，但保存了正常的第一双尖牙。
+此外，在尖牙唇向错位于唇侧、并舌向反或牙体龋坏、发育异常的特殊情况下，则也可以减数拔除，然后矫治错位，矫治完成后可修改的外形至近似侧切牙的形态。
+在确定减数拔牙牙位前，若第二乳磨牙尚存时，则需要先照X线片检查牙胚情况，若有第二双尖牙牙胚先天缺失或牙脱位或发育异常，则未替换之乳磨牙应为拔牙牙位。
+（2）矫治方法 ①手压法当患者为生长发育期儿童，减数拔除第一双尖牙后，尖牙排入的间隙充裕并尖牙错位不严重时，可不必戴用矫正器而采用手压法排齐尖牙，患者可以手指挤压错位入牙列，每日3次，每次压40～50次，同时尖牙在唇肌自然压力下也有调位的作用。②矫正器矫正可采用摘矫正器，唇弓上焊有移动远中弓簧或纵簧，亦可于唇侧粘着带拉钩的附件以弹力圈牵引排入牙列。采用固定矫正器矫正时可以方弓或Begg矫正器矫正，以不锈钢或镍钛弓丝结扎全牙弓托槽将压入牙列。
+2.上下前牙严重拥挤的矫正
+上下前牙严重拥挤时常可表现为尖牙唇向错位，同时反间隙不足，牙齿有不同程度的扭转，矫正设计多为拔除后进行。
+（1）可摘矫正器矫正 常用带有双曲唇弓、弓簧及舌簧的上下活动矫正器矫正，上颌矫正器带有垫。首先通过弓簧推向远中，为前牙拥挤创造间隙，然后在垫抬高咬合的情况下再以舌簧推舌向错位牙向唇向解除反，并进一步排齐前牙。
+（2）方丝弓矫正器矫正 ①粘着带环及粘合托槽，往往切牙拥挤影响托槽粘合。先拉尖牙向远中，这一过程中拥挤的切牙将随之远中移动减轻拥挤程度。②尖牙远中移动，拥挤牙已有足够间隙排齐时，上下切牙粘着托槽，并以镍钛矫正弓丝排齐。③采用方弓矫正器，因使用持续力并患者平时处于息止位，因而在无垫抬高咬合的情况下，反牙亦能唇向移位排齐。④前牙排列的同时，根据磨牙关系调整颌内或颌间牵引力，以确保磨牙关系的中性。⑤当磨牙关系中性、上下前牙排齐时，若牙弓内尚有剩余间隙，则利用弹力线或连续弹力圈连续结扎全牙弓而关闭剩余间隙。
+3.减数拔牙的原则
+（1）确定减数拔牙前应该进行牙模型的测量分析，特别是通过排牙试验了解排齐牙齿所需的间隙及计算上下牙齿的Bolton指数。
+（2）一般对于上下前牙应用X线片检查，检查牙周牙根情况，有否齿槽吸收，短根畸形等，有条件者还应照全口曲面断层X线片，以示有无其他部位埋伏牙、先天缺牙畸形。
+（3）当前牙拥挤时，确定减数拔牙的牙位，常考虑拔除第一双尖牙，因其位置邻近前牙，并全牙弓有4对第一双尖牙拔除后影响较小，但若牙弓内有较严重龋坏或发育不良的牙齿时，则矫治减数拔牙的牙位应首选拔除龋坏牙。
+（4）当计算出排齐拥挤牙齿所需间隙数量后，应再将矫治过程中可能因损失支抗而致支抗牙前移的数量加到所需间隙量中，一般固定矫正器每侧要损失支抗2mm左右，可摘矫正器损失支抗的量将更多一些。</t>
+  </si>
+  <si>
     <t>阻生齿</t>
   </si>
   <si>
@@ -193,6 +328,10 @@
 </t>
   </si>
   <si>
+    <t xml:space="preserve">
+由于阻生牙位置不正，被邻牙阻挡，有些还可能完全被骨组织包埋。因此阻生牙的拔除比其他牙要困难，被牙龈覆盖的要切开牙龈，被骨包埋的要把骨去除，被邻牙挡住的要把牙冠劈开，分片拔除。所以，拔阻生牙费时较长，术中术后可能发生的并发症也较多，如出血、断根、邻牙损伤、术后下唇麻木、干槽症等。</t>
+  </si>
+  <si>
     <t>口腔肿瘤</t>
   </si>
   <si>
@@ -212,6 +351,10 @@
     <t xml:space="preserve">
 关节疼痛、弹响及张口受限
 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+以保守治疗为主。药物治疗包括服用地西泮、乙酰水杨酸钠、止痛药和肌松弛药物。热敷、按摩以及张口训练可减轻肌与关节疼痛。牙合垫治疗应注意掌握时间，一般戴2周后可改用夜间戴。保守治疗无效时可行手术治疗。</t>
   </si>
   <si>
     <t>儿童口腔疾病</t>
@@ -220,13 +363,20 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -250,19 +400,30 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -304,7 +465,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -336,9 +497,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -370,6 +549,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -545,294 +742,386 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="57.5546875" customWidth="1"/>
+    <col min="8" max="8" width="61.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+    </row>
+    <row r="2" spans="1:8" ht="302.39999999999998" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="B2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s">
+      <c r="H2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="3" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" t="s">
+      <c r="B3" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
+      <c r="C3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B4" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="D3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F3" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" t="s">
+      <c r="G3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>7</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
+      <c r="H3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F5" t="s">
+    </row>
+    <row r="4" spans="1:8" ht="331.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
+      <c r="B4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
+      <c r="E4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" t="s">
+      <c r="H4" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D7" t="s">
+    </row>
+    <row r="5" spans="1:8" ht="144" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" t="s">
+      <c r="F5" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B8" t="s">
-        <v>31</v>
-      </c>
-      <c r="C8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" t="s">
+      <c r="G5" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H5" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
-      <c r="A9" t="s">
+    <row r="6" spans="1:8" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B6" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" t="s">
+      <c r="C6" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" t="s">
+      <c r="F6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G6" s="1" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" t="s">
+      <c r="H6" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="129.6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="C11" t="s">
-        <v>7</v>
-      </c>
-      <c r="D11" t="s">
+      <c r="D7" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G7" s="1" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" t="s">
+      <c r="H7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="187.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" t="s">
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
+      <c r="F8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D13" t="s">
+      <c r="G8" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="H8" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" t="s">
+      <c r="B9" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="409.6" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>14</v>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="115.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="72" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="28.8" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>